--- a/biology/Biochimie/Jessie_Inchauspé/Jessie_Inchauspé.xlsx
+++ b/biology/Biochimie/Jessie_Inchauspé/Jessie_Inchauspé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jessie_Inchausp%C3%A9</t>
+          <t>Jessie_Inchauspé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jessie Inchauspé, aussi connue sous le nom de Glucose Goddess, est une biochimiste et autrice à succès française. Elle recommande de suivre au quotidien sa glycémie pour optimiser sa santé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jessie_Inchausp%C3%A9</t>
+          <t>Jessie_Inchauspé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jessie Inchauspé, née en 1992[1], est titulaire d'une licence en mathématiques du King's College de Londres et d'une maîtrise en biochimie de l'université de Georgetown[2].
-Lors d'un accident l'année de ses 19 ans, elle se fracture le dos. Ce tournant l'amène à s'intéresser à la santé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jessie Inchauspé, née en 1992, est titulaire d'une licence en mathématiques du King's College de Londres et d'une maîtrise en biochimie de l'université de Georgetown.
+Lors d'un accident l'année de ses 19 ans, elle se fracture le dos. Ce tournant l'amène à s'intéresser à la santé.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jessie_Inchausp%C3%A9</t>
+          <t>Jessie_Inchauspé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir travaillé au sein de la start-up 23andMe en Californie, spécialisée dans la génétique[3], elle publie à partir de 2019 sur Instagram, des graphiques pour illustrer des études scientifiques portant sur la nutrition, à partir des variations glycémiques de son propre corps[3].
-Son premier livre, Faites votre glucose révolution, en avril 2022[4] est traduit en 40 langues et diffusé à plus d'un million d'exemplaires[5].
-Elle publie un second livre en mai 2023, La Méthode Glucose Goddess, qui atteint la troisième place du classement dans le New York Times Bestseller List[6],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir travaillé au sein de la start-up 23andMe en Californie, spécialisée dans la génétique, elle publie à partir de 2019 sur Instagram, des graphiques pour illustrer des études scientifiques portant sur la nutrition, à partir des variations glycémiques de son propre corps.
+Son premier livre, Faites votre glucose révolution, en avril 2022 est traduit en 40 langues et diffusé à plus d'un million d'exemplaires.
+Elle publie un second livre en mai 2023, La Méthode Glucose Goddess, qui atteint la troisième place du classement dans le New York Times Bestseller List,.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jessie_Inchausp%C3%A9</t>
+          <t>Jessie_Inchauspé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Réception par les scientifiques spécialisés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le professeur François Jornayvaz, des Hopitaux universitaires de Genève, quand on n'est pas diabétique, mesurer plusieurs fois par jour son taux de glucose est « juste une perte de temps ». Selon lui, Jessie Inchauspé « se cache derrière un aspect pseudoscientifique pour prôner une méthode qui à [son] avis ne marche pas et se base sur très peu de preuves. Les études scientifiques qu’elle cite sont très anecdotiques, voire carrément fausses, ou non applicables à ce qu’elle propose »[7].
-Plusieurs chercheurs affirment que si réduire notre consommation de sucre est un message essentiel, les préconisations de l'influenceuse sont douteuses car non fondées sur des études sérieuses[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le professeur François Jornayvaz, des Hopitaux universitaires de Genève, quand on n'est pas diabétique, mesurer plusieurs fois par jour son taux de glucose est « juste une perte de temps ». Selon lui, Jessie Inchauspé « se cache derrière un aspect pseudoscientifique pour prôner une méthode qui à [son] avis ne marche pas et se base sur très peu de preuves. Les études scientifiques qu’elle cite sont très anecdotiques, voire carrément fausses, ou non applicables à ce qu’elle propose ».
+Plusieurs chercheurs affirment que si réduire notre consommation de sucre est un message essentiel, les préconisations de l'influenceuse sont douteuses car non fondées sur des études sérieuses.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jessie_Inchausp%C3%A9</t>
+          <t>Jessie_Inchauspé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Faites votre glucose révolution, Robert Laffont, 2022  (ISBN 978-2-22125677-0)
 La Méthode Glucose Goddess, Robert Laffont, 2023  (ISBN 978-2-22126924-4)</t>
